--- a/agendas_consolidadas.xlsx
+++ b/agendas_consolidadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11068" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11073" uniqueCount="1104">
   <si>
     <t>nombre_original_agenda</t>
   </si>
@@ -15328,7 +15328,7 @@
         <v>678</v>
       </c>
       <c r="C487" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D487" t="s">
         <v>1005</v>
@@ -15354,7 +15354,7 @@
         <v>678</v>
       </c>
       <c r="C488" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D488" t="s">
         <v>1005</v>
@@ -15380,7 +15380,7 @@
         <v>678</v>
       </c>
       <c r="C489" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D489" t="s">
         <v>1005</v>
@@ -15406,7 +15406,7 @@
         <v>678</v>
       </c>
       <c r="C490" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D490" t="s">
         <v>1005</v>
@@ -15530,7 +15530,7 @@
         <v>678</v>
       </c>
       <c r="C495" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D495" t="s">
         <v>1003</v>
@@ -15556,7 +15556,7 @@
         <v>678</v>
       </c>
       <c r="C496" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D496" t="s">
         <v>1003</v>
@@ -15582,7 +15582,7 @@
         <v>678</v>
       </c>
       <c r="C497" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D497" t="s">
         <v>1003</v>
@@ -15608,7 +15608,7 @@
         <v>678</v>
       </c>
       <c r="C498" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D498" t="s">
         <v>1003</v>
@@ -15634,7 +15634,7 @@
         <v>680</v>
       </c>
       <c r="C499" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E499" t="s">
         <v>1015</v>
@@ -16501,7 +16501,7 @@
         <v>686</v>
       </c>
       <c r="C538" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E538" t="s">
         <v>1015</v>
@@ -16731,7 +16731,7 @@
         <v>688</v>
       </c>
       <c r="C548" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E548" t="s">
         <v>1013</v>
@@ -23456,6 +23456,9 @@
       <c r="B845" t="s">
         <v>750</v>
       </c>
+      <c r="C845" t="s">
+        <v>959</v>
+      </c>
       <c r="E845" t="s">
         <v>1015</v>
       </c>
@@ -23476,6 +23479,9 @@
       <c r="B846" t="s">
         <v>750</v>
       </c>
+      <c r="C846" t="s">
+        <v>959</v>
+      </c>
       <c r="E846" t="s">
         <v>1013</v>
       </c>
@@ -23496,6 +23502,9 @@
       <c r="B847" t="s">
         <v>750</v>
       </c>
+      <c r="C847" t="s">
+        <v>959</v>
+      </c>
       <c r="D847" t="s">
         <v>1006</v>
       </c>
@@ -23519,6 +23528,9 @@
       <c r="B848" t="s">
         <v>750</v>
       </c>
+      <c r="C848" t="s">
+        <v>959</v>
+      </c>
       <c r="D848" t="s">
         <v>1006</v>
       </c>
@@ -23542,6 +23554,9 @@
       <c r="B849" t="s">
         <v>738</v>
       </c>
+      <c r="C849" t="s">
+        <v>959</v>
+      </c>
       <c r="E849" t="s">
         <v>1013</v>
       </c>
@@ -30887,7 +30902,7 @@
         <v>826</v>
       </c>
       <c r="C1182" t="s">
-        <v>995</v>
+        <v>959</v>
       </c>
       <c r="E1182" t="s">
         <v>1013</v>
@@ -30910,7 +30925,7 @@
         <v>827</v>
       </c>
       <c r="C1183" t="s">
-        <v>995</v>
+        <v>959</v>
       </c>
       <c r="E1183" t="s">
         <v>1012</v>
@@ -33045,7 +33060,7 @@
         <v>863</v>
       </c>
       <c r="C1277" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="E1277" t="s">
         <v>1014</v>
